--- a/data/minfin/11_questions.xlsx
+++ b/data/minfin/11_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -155,11 +155,6 @@
     <t>Казначейский аккредитив представляет собой казначейское обеспечение обязательств при казначейском сопровождении целевых средств</t>
   </si>
   <si>
-    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий 
-по внутреннему государственному финансовому контролю?
-</t>
-  </si>
-  <si>
     <t>Порядок, регламентирован, осуществление, полномочия, внутренний, государственный, финансовый контроль</t>
   </si>
   <si>
@@ -262,12 +257,16 @@
   <si>
     <t>Разрешение конфликтных ситуаций в ходе проведения контрольного мероприятия предусмотрено на основании Приказа Федерального казначейства от 1 марта 2017 г. № 39 «Об утверждении Стандарта внутренней организации контрольного мероприятия «Общие требования к внутренней организации контрольного мероприятия»</t>
   </si>
+  <si>
+    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий по внутреннему государственному финансовому контролю?
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,24 +663,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -699,7 +698,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="393.75">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -755,7 +754,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -773,7 +772,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -791,7 +790,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,189 +807,189 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="362.25">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/11_questions.xlsx
+++ b/data/minfin/11_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,16 +10,41 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Удалить вопрос</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>question</t>
   </si>
@@ -91,28 +116,6 @@
   </si>
   <si>
     <t>Казначейское сопровождение, подлежит, что</t>
-  </si>
-  <si>
-    <t>Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ключевые слова: 
-Казначейское сопровождение, подлежит, что
-Короткий (голосовой) ответ:
-Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг
-Полный (текстовый) ответ:
-Казначейскому сопровождению подлежат
-1) субсидии юридическим лицам (за исключением субсидий федеральным бюджетным и автономным учреждениям) и бюджетные инвестиции юридическим лицам, предоставляемые в соответствии со статьей 80 Бюджетного кодекса Российской Федерации, а также:
-• взносы в уставные (складочные) капиталы юридических лиц (дочерних обществ юридических лиц), вклады в имущество юридических лиц (дочерних обществ юридических лиц), не увеличивающие их уставные (складочные) капиталы, источником финансового обеспечения которых являются субсидии и бюджетные инвестиции;
-• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым юридическими лицами, получающими субсидии, юридическими лицами, получающими бюджетные инвестиции, указанные в абзаце первом настоящего пункта, а также юридическими лицами, которым предоставляются взносы (вклады), указанные в абзаце втором настоящего пункта, с юридическими лицами - исполнителями по контрактам (договорам), источником финансового обеспечения которых являются данные субсидии, бюджетные инвестиции и взносы (вклады);
-• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в абзаце третьем настоящего пункта;
-2) авансовые платежи по государственным контрактам о поставке товаров, выполнении работ, оказании услуг (за исключением государственных контрактов, заключаемых в рамках реализации государственного оборонного заказа, подлежащих исполнению на отдельных счетах, открытых в уполномоченных банках в соответствии с Федеральным законом от 29 декабря 2012 года № 275-ФЗ "О государственном оборонном заказе", и государственных контрактов, исполнение которых подлежит банковскому сопровождению в соответствии с законодательством Российской Федерации о контрактной системе в сфере закупок товаров, работ, услуг для обеспечения государственных и муниципальных нужд), заключаемым на сумму более 100 000,0 тыс. рублей, а также авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения указанных государственных контрактов;
-3) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым на сумму более 100 000,0 тыс. рублей федеральными бюджетными или автономными учреждениями, лицевые счета которым открыты в территориальных органах Федерального казначейства, источником финансового обеспечения которых являются субсидии в соответствии с абзацем вторым пункта 1 статьи 78.1 и статьей 78.2 Бюджетного кодекса Российской Федерации;
-4) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в пункте 3;
-5) средства, получаемые юридическими лицами по государственным контрактам (контрактам, договорам) в случаях, установленных Правительством Российской Федерации;
-6) авансовые платежи свыше 30 и до 80 процентов по государственным контрактам (за исключением государственных контрактов, контрактов на выполнение научно-исследовательских и опытно-конструкторских работ, направленных на импортозамещение технологической продукции);
-7) средства в валюте Российской Федерации, получаемые при осуществлении расчетов в целях исполнения государственных контрактов по государственному оборонному заказу, за исключением государственных контрактов, заключаемых Министерством обороны Российской Федерации
-</t>
   </si>
   <si>
     <t>Какие виды контроля предполагает расширенное казначейское сопровождение?</t>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>Казначейское сопровождение, НПА. нормативные правовые акты, регулируют, порядок, казначейское сопровождение</t>
-  </si>
-  <si>
-    <t>Порядок по казначейскому сопровождению регулируется федеральным законом о федеральном бюджете на две тысячи семнадцатый год и на плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов», а также постановлениями Правительства об утверждении Правил казначейского сопровождения средств в валюте Российской Федерации</t>
   </si>
   <si>
     <t>Порядок по казначейскому сопровождению регулируют нормативные правовые акты:
@@ -146,13 +146,9 @@
 4. Постановление Правительства Российской Федерации от 03.03.2017 № 249 «О казначейском сопровождении средств в валюте Российской Федерации, получаемых при осуществлении расчетов в целях исполнения государственного оборонного заказа»</t>
   </si>
   <si>
-    <t>Что такое казначейский аккредитив?</t>
-  </si>
-  <si>
-    <t>Казначейский аккредитив, определение, понятие, что, такое</t>
-  </si>
-  <si>
-    <t>Казначейский аккредитив представляет собой казначейское обеспечение обязательств при казначейском сопровождении целевых средств</t>
+    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий 
+по внутреннему государственному финансовому контролю?
+</t>
   </si>
   <si>
     <t>Порядок, регламентирован, осуществление, полномочия, внутренний, государственный, финансовый контроль</t>
@@ -258,15 +254,65 @@
     <t>Разрешение конфликтных ситуаций в ходе проведения контрольного мероприятия предусмотрено на основании Приказа Федерального казначейства от 1 марта 2017 г. № 39 «Об утверждении Стандарта внутренней организации контрольного мероприятия «Общие требования к внутренней организации контрольного мероприятия»</t>
   </si>
   <si>
-    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий по внутреннему государственному финансовому контролю?
+    <r>
+      <t xml:space="preserve">Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>расчеты по государственным контрактам по государственному оборонному заказу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Порядок по казначейскому сопровождению регулируется федеральным законом о федеральном бюджете на две тысячи семнадцатый год и на плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов», а также </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>постановлением</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Правительства об утверждении Правил казначейского сопровождения средств в валюте Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Казначейскому сопровождению подлежат
+1) субсидии юридическим лицам (за исключением субсидий федеральным бюджетным и автономным учреждениям) и бюджетные инвестиции юридическим лицам, предоставляемые в соответствии со статьей 80 Бюджетного кодекса Российской Федерации, а также:
+• взносы в уставные (складочные) капиталы юридических лиц (дочерних обществ юридических лиц), вклады в имущество юридических лиц (дочерних обществ юридических лиц), не увеличивающие их уставные (складочные) капиталы, источником финансового обеспечения которых являются субсидии и бюджетные инвестиции;
+• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым юридическими лицами, получающими субсидии, юридическими лицами, получающими бюджетные инвестиции, указанные в абзаце первом настоящего пункта, а также юридическими лицами, которым предоставляются взносы (вклады), указанные в абзаце втором настоящего пункта, с юридическими лицами - исполнителями по контрактам (договорам), источником финансового обеспечения которых являются данные субсидии, бюджетные инвестиции и взносы (вклады);
+• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в абзаце третьем настоящего пункта;
+2) авансовые платежи по государственным контрактам о поставке товаров, выполнении работ, оказании услуг (за исключением государственных контрактов, заключаемых в рамках реализации государственного оборонного заказа, подлежащих исполнению на отдельных счетах, открытых в уполномоченных банках в соответствии с Федеральным законом от 29 декабря 2012 года № 275-ФЗ "О государственном оборонном заказе", и государственных контрактов, исполнение которых подлежит банковскому сопровождению в соответствии с законодательством Российской Федерации о контрактной системе в сфере закупок товаров, работ, услуг для обеспечения государственных и муниципальных нужд), заключаемым на сумму более 100 000,0 тыс. рублей, а также авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения указанных государственных контрактов;
+3) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым на сумму более 100 000,0 тыс. рублей федеральными бюджетными или автономными учреждениями, лицевые счета которым открыты в территориальных органах Федерального казначейства, источником финансового обеспечения которых являются субсидии в соответствии с абзацем вторым пункта 1 статьи 78.1 и статьей 78.2 Бюджетного кодекса Российской Федерации;
+4) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в пункте 3;
+5) средства, получаемые юридическими лицами по государственным контрактам (контрактам, договорам) в случаях, установленных Правительством Российской Федерации;
+6) авансовые платежи свыше 30 и до 80 процентов по государственным контрактам (за исключением государственных контрактов, контрактов на выполнение научно-исследовательских и опытно-конструкторских работ, направленных на импортозамещение технологической продукции);
+7) средства в валюте Российской Федерации, получаемые при осуществлении расчетов в целях исполнения государственных контрактов по государственному оборонному заказу, за исключением государственных контрактов, заключаемых Министерством обороны Российской Федерации, а также отдельных государственных контрактов, заключаемых Государственной корпорацией по атомной энергии «Росатом», Федеральной службой безопасности Российской Федерации и Службой внешней разведки Российской Федерации, которые в силу законодательства не подлежат казначейскому сопровождению
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +342,40 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -317,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +424,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,24 +751,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -698,7 +786,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,264 +824,257 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="408.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>25</v>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:12" s="16" customFormat="1">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="346.5">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/minfin/11_questions.xlsx
+++ b/data/minfin/11_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -93,28 +93,6 @@
     <t>Казначейское сопровождение, подлежит, что</t>
   </si>
   <si>
-    <t>Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ключевые слова: 
-Казначейское сопровождение, подлежит, что
-Короткий (голосовой) ответ:
-Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг
-Полный (текстовый) ответ:
-Казначейскому сопровождению подлежат
-1) субсидии юридическим лицам (за исключением субсидий федеральным бюджетным и автономным учреждениям) и бюджетные инвестиции юридическим лицам, предоставляемые в соответствии со статьей 80 Бюджетного кодекса Российской Федерации, а также:
-• взносы в уставные (складочные) капиталы юридических лиц (дочерних обществ юридических лиц), вклады в имущество юридических лиц (дочерних обществ юридических лиц), не увеличивающие их уставные (складочные) капиталы, источником финансового обеспечения которых являются субсидии и бюджетные инвестиции;
-• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым юридическими лицами, получающими субсидии, юридическими лицами, получающими бюджетные инвестиции, указанные в абзаце первом настоящего пункта, а также юридическими лицами, которым предоставляются взносы (вклады), указанные в абзаце втором настоящего пункта, с юридическими лицами - исполнителями по контрактам (договорам), источником финансового обеспечения которых являются данные субсидии, бюджетные инвестиции и взносы (вклады);
-• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в абзаце третьем настоящего пункта;
-2) авансовые платежи по государственным контрактам о поставке товаров, выполнении работ, оказании услуг (за исключением государственных контрактов, заключаемых в рамках реализации государственного оборонного заказа, подлежащих исполнению на отдельных счетах, открытых в уполномоченных банках в соответствии с Федеральным законом от 29 декабря 2012 года № 275-ФЗ "О государственном оборонном заказе", и государственных контрактов, исполнение которых подлежит банковскому сопровождению в соответствии с законодательством Российской Федерации о контрактной системе в сфере закупок товаров, работ, услуг для обеспечения государственных и муниципальных нужд), заключаемым на сумму более 100 000,0 тыс. рублей, а также авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения указанных государственных контрактов;
-3) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым на сумму более 100 000,0 тыс. рублей федеральными бюджетными или автономными учреждениями, лицевые счета которым открыты в территориальных органах Федерального казначейства, источником финансового обеспечения которых являются субсидии в соответствии с абзацем вторым пункта 1 статьи 78.1 и статьей 78.2 Бюджетного кодекса Российской Федерации;
-4) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в пункте 3;
-5) средства, получаемые юридическими лицами по государственным контрактам (контрактам, договорам) в случаях, установленных Правительством Российской Федерации;
-6) авансовые платежи свыше 30 и до 80 процентов по государственным контрактам (за исключением государственных контрактов, контрактов на выполнение научно-исследовательских и опытно-конструкторских работ, направленных на импортозамещение технологической продукции);
-7) средства в валюте Российской Федерации, получаемые при осуществлении расчетов в целях исполнения государственных контрактов по государственному оборонному заказу, за исключением государственных контрактов, заключаемых Министерством обороны Российской Федерации
-</t>
-  </si>
-  <si>
     <t>Какие виды контроля предполагает расширенное казначейское сопровождение?</t>
   </si>
   <si>
@@ -134,9 +112,6 @@
   </si>
   <si>
     <t>Казначейское сопровождение, НПА. нормативные правовые акты, регулируют, порядок, казначейское сопровождение</t>
-  </si>
-  <si>
-    <t>Порядок по казначейскому сопровождению регулируется федеральным законом о федеральном бюджете на две тысячи семнадцатый год и на плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов», а также постановлениями Правительства об утверждении Правил казначейского сопровождения средств в валюте Российской Федерации</t>
   </si>
   <si>
     <t>Порядок по казначейскому сопровождению регулируют нормативные правовые акты:
@@ -153,6 +128,11 @@
   </si>
   <si>
     <t>Казначейский аккредитив представляет собой казначейское обеспечение обязательств при казначейском сопровождении целевых средств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий 
+по внутреннему государственному финансовому контролю?
+</t>
   </si>
   <si>
     <t>Порядок, регламентирован, осуществление, полномочия, внутренний, государственный, финансовый контроль</t>
@@ -258,15 +238,65 @@
     <t>Разрешение конфликтных ситуаций в ходе проведения контрольного мероприятия предусмотрено на основании Приказа Федерального казначейства от 1 марта 2017 г. № 39 «Об утверждении Стандарта внутренней организации контрольного мероприятия «Общие требования к внутренней организации контрольного мероприятия»</t>
   </si>
   <si>
-    <t xml:space="preserve">Чем регламентирован порядок осуществления полномочий по внутреннему государственному финансовому контролю?
+    <t xml:space="preserve">Казначейскому сопровождению подлежат
+1) субсидии юридическим лицам (за исключением субсидий федеральным бюджетным и автономным учреждениям) и бюджетные инвестиции юридическим лицам, предоставляемые в соответствии со статьей 80 Бюджетного кодекса Российской Федерации, а также:
+• взносы в уставные (складочные) капиталы юридических лиц (дочерних обществ юридических лиц), вклады в имущество юридических лиц (дочерних обществ юридических лиц), не увеличивающие их уставные (складочные) капиталы, источником финансового обеспечения которых являются субсидии и бюджетные инвестиции;
+• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым юридическими лицами, получающими субсидии, юридическими лицами, получающими бюджетные инвестиции, указанные в абзаце первом настоящего пункта, а также юридическими лицами, которым предоставляются взносы (вклады), указанные в абзаце втором настоящего пункта, с юридическими лицами - исполнителями по контрактам (договорам), источником финансового обеспечения которых являются данные субсидии, бюджетные инвестиции и взносы (вклады);
+• авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в абзаце третьем настоящего пункта;
+2) авансовые платежи по государственным контрактам о поставке товаров, выполнении работ, оказании услуг (за исключением государственных контрактов, заключаемых в рамках реализации государственного оборонного заказа, подлежащих исполнению на отдельных счетах, открытых в уполномоченных банках в соответствии с Федеральным законом от 29 декабря 2012 года № 275-ФЗ "О государственном оборонном заказе", и государственных контрактов, исполнение которых подлежит банковскому сопровождению в соответствии с законодательством Российской Федерации о контрактной системе в сфере закупок товаров, работ, услуг для обеспечения государственных и муниципальных нужд), заключаемым на сумму более 100 000,0 тыс. рублей, а также авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения указанных государственных контрактов;
+3) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым на сумму более 100 000,0 тыс. рублей федеральными бюджетными или автономными учреждениями, лицевые счета которым открыты в территориальных органах Федерального казначейства, источником финансового обеспечения которых являются субсидии в соответствии с абзацем вторым пункта 1 статьи 78.1 и статьей 78.2 Бюджетного кодекса Российской Федерации;
+4) авансовые платежи по контрактам (договорам) о поставке товаров, выполнении работ, оказании услуг, заключаемым исполнителями и соисполнителями в рамках исполнения контрактов (договоров), указанных в пункте 3;
+5) средства, получаемые юридическими лицами по государственным контрактам (контрактам, договорам) в случаях, установленных Правительством Российской Федерации;
+6) авансовые платежи свыше 30 и до 80 процентов по государственным контрактам (за исключением государственных контрактов, контрактов на выполнение научно-исследовательских и опытно-конструкторских работ, направленных на импортозамещение технологической продукции);
+7) средства в валюте Российской Федерации, получаемые при осуществлении расчетов в целях исполнения государственных контрактов по государственному оборонному заказу, за исключением государственных контрактов, заключаемых Министерством обороны Российской Федерации
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Казначейскому сопровождению подлежат субсидии, бюджетные инвестиции юридическим лицам, взносы в уставный капитал, вклады в имущество юридических лиц, авансовые платежи по государственным контрактам на поставку товаров, работ, услуг, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>расчеты по государственным контрактам по государственному оборонному заказу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Порядок по казначейскому сопровождению регулируется федеральным законом о федеральном бюджете на две тысячи семнадцатый год и на плановый период две тысячи восемнадцатого и две тысячи девятнадцатого годов», а также </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>постановлением</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Правительства об утверждении Правил казначейского сопровождения средств в валюте Российской Федерации</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +326,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -317,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -350,6 +393,12 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,24 +712,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -698,7 +747,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,260 +785,260 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="346.5">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>25</v>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="346.5">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/11_questions.xlsx
+++ b/data/minfin/11_questions.xlsx
@@ -1,50 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Удалить вопрос</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>question</t>
   </si>
@@ -89,9 +64,6 @@
   </si>
   <si>
     <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
   </si>
   <si>
     <t>11.5</t>
@@ -311,8 +283,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,14 +321,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -390,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,17 +392,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,24 +706,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
@@ -786,7 +741,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -824,257 +779,247 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="408.75" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="78.75">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="173.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="220.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="346.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
-      <c r="A12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
-      <c r="A31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/minfin/11_questions.xlsx
+++ b/data/minfin/11_questions.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>question</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Виды, контроль, расширенное казначейское сопровождение</t>
-  </si>
-  <si>
-    <t>Расширенное казначейское сопровождение предполагает проверку платежных документов и документов, подтверждающих возникновение обязательств юридического лица; визуальную проверку факта поставки товаров, выполнения работ, оказания услуг; проверку соответствия цены товара, работы, услуги, указанной в государственном контракте структуре себестоимости по элементам затрат; проверку непревышения размера прибыли над величиной предельной прибыли, установленной условиями государственного контракта</t>
   </si>
   <si>
     <t>Расширенное казначейское сопровождение предполагает кроме санкционирования расходов с проверкой платежных документов и документов, подтверждающих возникновение обязательств юридического лица, дополнительные проверки, а именно:
@@ -176,13 +173,6 @@
   </si>
   <si>
     <t>Внеплановые контрольные мероприятия в финансово-бюджетной сфере осуществляются на основании решения руководителя (или заместителя руководителя) Федерального казначейства (или его территориального органа)</t>
-  </si>
-  <si>
-    <t>Внеплановые контрольные мероприятия осуществляются на основании решения руководителя (заместителя руководителя) Федерального казначейства (его территориального органа), принятого:
-- в случае поступления обращений (поручений) Президента Российской Федерации, Администрации Президента Российской Федерации, Правительства Российской Федерации, Аппарата Правительства Российской Федерации, Министра финансов Российской Федерации, Следственного комитета Российской Федерации, правоохранительных органов, иных государственных органов, депутатских запросов, обращений граждан и организаций;
-- в случае получения должностным лицом Федерального казначейства (его территориального органа) в ходе исполнения должностных обязанностей информации о нарушениях законодательных и иных нормативных правовых актов по вопросам, отнесенным к сфере деятельности Федерального казначейства, в том числе из средств массовой информации;
-- в случае истечения срока исполнения ранее выданного предписания (представления);
-- в случаях, принятия решения руководителем Федерального о необходимости проведения внепланового контрольного мероприятия по итогам рассмотрения материалов проведенного контрольного мероприятия</t>
   </si>
   <si>
     <t>Какими контрольными (надзорными) полномочиями обладает Федеральное казначейство?</t>
@@ -278,6 +268,19 @@
 6) авансовые платежи свыше 30 и до 80 процентов по государственным контрактам (за исключением государственных контрактов, контрактов на выполнение научно-исследовательских и опытно-конструкторских работ, направленных на импортозамещение технологической продукции);
 7) средства в валюте Российской Федерации, получаемые при осуществлении расчетов в целях исполнения государственных контрактов по государственному оборонному заказу, за исключением государственных контрактов, заключаемых Министерством обороны Российской Федерации, а также отдельных государственных контрактов, заключаемых Государственной корпорацией по атомной энергии «Росатом», Федеральной службой безопасности Российской Федерации и Службой внешней разведки Российской Федерации, которые в силу законодательства не подлежат казначейскому сопровождению
 </t>
+  </si>
+  <si>
+    <t>Расширенное казначейское сопровождение предполагает проверку платежных документов и документов, подтверждающих возникновение обязательств юридического лица; визуальную проверку факта поставки товаров, выполнения работ, оказания услуг; проверку соответствия цен\+ы товара, работы, услуги, указанной в государственном контракте структуре себестоимости по элементам затрат; проверку непревыш\+ения размера прибыли над величиной предельной прибыли, установленной условиями государственного контракта</t>
+  </si>
+  <si>
+    <t>Правовое регулирование контроля в финансово-бюджетной сфере предполагается осуществлять на основе модели Международной организации высших органов внутреннего государственного финансового контроля ИНТОС\+АИ и Счетной палаты Российской Федерации</t>
+  </si>
+  <si>
+    <t>Внеплановые контрольные мероприятия осуществляются на основании решения руководителя (заместителя руководителя) Федерального казначейства (его территориального органа), принятого:
+- в случае поступления обращений (поручений) Президента Российской Федерации, Администрации Президента Российской Федерации, Правительства Российской Федерации, Аппарата Правительства Российской Федерации, Министра финансов Российской Федерации, Следственного комитета Российской Федерации, правоохранительных органов, иных государственных органов, депутатских запросов, обращений граждан и организаций;
+- в случае получения должностным лицом Федерального казначейства (его территориального органа) в ходе исполнения должностных обязанностей информации о нарушениях законодательных и иных нормативных правовых актов по вопросам, отнесенным к сфере деятельности Федерального казначейства, в том числе из средств массовой информации;
+- в случае истечения срока исполнения ранее выданного предписания (представления);
+- в случаях принятия решения руководителем Федерального о необходимости проведения внепланового контрольного мероприятия по итогам рассмотрения материалов проведенного контрольного мероприятия</t>
   </si>
 </sst>
 </file>
@@ -717,10 +720,10 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,10 +790,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -805,10 +808,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>24</v>
@@ -820,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -838,16 +841,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -855,16 +858,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -872,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -891,16 +894,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -910,16 +913,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -927,33 +930,33 @@
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
